--- a/testData/hackathon.xlsx
+++ b/testData/hackathon.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303572\eclipse-workspace\HackathonProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77F00B7-153F-4FCC-9B1B-F364C611B8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DFCF85-CE10-445C-9FF3-4B42CC6767F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{006902EC-5D44-460D-8691-C6709AC3CA4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{006902EC-5D44-460D-8691-C6709AC3CA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="low_price_student_plans" sheetId="2" r:id="rId1"/>
     <sheet name="male_family" sheetId="3" r:id="rId2"/>
     <sheet name="female_family" sheetId="4" r:id="rId3"/>
+    <sheet name="healthInsureneceMenu" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,25 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="17">
-  <si>
-    <t>₹1,514</t>
-  </si>
-  <si>
-    <t>₹1,628</t>
-  </si>
-  <si>
-    <t>₹2,089</t>
-  </si>
-  <si>
-    <t>₹2,156</t>
-  </si>
-  <si>
-    <t>₹2,719</t>
-  </si>
-  <si>
-    <t>₹2,764</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="30">
   <si>
     <t>Self</t>
   </si>
@@ -89,6 +72,63 @@
   </si>
   <si>
     <t>Husband</t>
+  </si>
+  <si>
+    <t>₹1,514GST included</t>
+  </si>
+  <si>
+    <t>GST included</t>
+  </si>
+  <si>
+    <t>₹1,628GST included</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Family Health Insurance</t>
+  </si>
+  <si>
+    <t>Senior Citizen Health Insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance for Parents</t>
+  </si>
+  <si>
+    <t>Best Health Insurance Plans</t>
+  </si>
+  <si>
+    <t>Maternity Insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance Portability</t>
+  </si>
+  <si>
+    <t>Mediclaim Policy</t>
+  </si>
+  <si>
+    <t>Critical Illness Insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance Calculator</t>
+  </si>
+  <si>
+    <t>Health Insurance Companies</t>
+  </si>
+  <si>
+    <t>Health Insurance for NRIs</t>
+  </si>
+  <si>
+    <t>Health Insurance Claim</t>
+  </si>
+  <si>
+    <t>₹2,089GST included</t>
+  </si>
+  <si>
+    <t>₹2,156GST included</t>
+  </si>
+  <si>
+    <t>₹2,764GST included</t>
   </si>
 </sst>
 </file>
@@ -440,8 +480,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CB56F5-0A15-491C-AB58-F96B7F01C9DE}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CDA2D7-3ED6-4C4F-B9DA-E258DEE33363}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -477,13 +580,33 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3839AC5-3E2A-4F47-9935-DAEB6F18007B}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -492,52 +615,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -545,9 +668,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A10"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3C8729-7B73-4014-9C53-AA275C2D9D9D}">
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,7 +678,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -565,42 +688,52 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
